--- a/Data/Transitions/19411943Translation.xlsx
+++ b/Data/Transitions/19411943Translation.xlsx
@@ -484,6 +484,9 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
@@ -701,9 +704,6 @@
   </si>
   <si>
     <t>{319.0: 1.0}</t>
-  </si>
-  <si>
-    <t>{320.0: 1.0}</t>
   </si>
   <si>
     <t>{398.0: 1.0}</t>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3934,7 +3934,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3945,29 +3945,29 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>589</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>589</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3989,7 +3989,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4000,7 +4000,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4011,7 +4011,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4022,7 +4022,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4033,7 +4033,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4044,7 +4044,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4066,7 +4066,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4077,7 +4077,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4121,7 +4121,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4132,7 +4132,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4165,7 +4165,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4176,7 +4176,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4187,7 +4187,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4198,7 +4198,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4220,7 +4220,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4253,7 +4253,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4264,7 +4264,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4297,7 +4297,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4330,7 +4330,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4341,7 +4341,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4363,7 +4363,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4374,7 +4374,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4385,7 +4385,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4396,7 +4396,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4418,7 +4418,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4440,7 +4440,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4451,7 +4451,7 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
@@ -4462,7 +4462,7 @@
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4484,29 +4484,29 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>590</v>
+        <v>211</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>590</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4528,7 +4528,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4539,7 +4539,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4550,7 +4550,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4572,7 +4572,7 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
@@ -4594,7 +4594,7 @@
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4605,7 +4605,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4627,7 +4627,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4638,7 +4638,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4682,7 +4682,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
